--- a/data/trans_orig/IP07A12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A12-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{137B918F-2B11-46BF-9139-A4334C34B881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F5F086D-4A92-498B-A30F-B13A200128E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4083341A-00D4-4B70-9C89-43CD933EE032}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{844B9C5E-DF9A-4247-A665-8BC96CAC732E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -76,2089 +76,2089 @@
     <t>28,62%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>53,78%</t>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 44,78%)</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2016 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
     <t>4,09%</t>
   </si>
   <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2012 (Tasa respuesta: 44,78%)</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de tener suficiente dinero para hacer lo mismo que sus amigos en 2015 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
+    <t>8,45%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
+    <t>11,29%</t>
   </si>
   <si>
     <t>7,21%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>1,6%</t>
+    <t>3,52%</t>
   </si>
 </sst>
 </file>
@@ -2570,7 +2570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDE39B5-D88A-46F1-A433-2892F844BD56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D475CC85-7D61-4BCC-B49A-523EFE6EB1A8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3499,7 +3499,7 @@
         <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3514,7 @@
         <v>4045</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>122</v>
@@ -3532,10 +3532,10 @@
         <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -3544,13 +3544,13 @@
         <v>6670</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3606,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3618,13 +3618,13 @@
         <v>25808</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3633,13 +3633,13 @@
         <v>21779</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -3648,13 +3648,13 @@
         <v>47586</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3669,13 +3669,13 @@
         <v>21136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -3684,13 +3684,13 @@
         <v>16857</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
         <v>61</v>
@@ -3699,10 +3699,10 @@
         <v>37993</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>147</v>
@@ -3753,10 +3753,10 @@
         <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3771,13 @@
         <v>2020</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -3786,13 +3786,13 @@
         <v>4325</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -3801,13 +3801,13 @@
         <v>6345</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,7 +3828,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3837,13 +3837,13 @@
         <v>632</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3852,13 +3852,13 @@
         <v>1279</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,7 +3914,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3926,13 +3926,13 @@
         <v>31406</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H28" s="7">
         <v>34</v>
@@ -3941,13 +3941,13 @@
         <v>26475</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M28" s="7">
         <v>78</v>
@@ -3956,13 +3956,13 @@
         <v>57881</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3977,13 @@
         <v>43591</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -3992,13 +3992,13 @@
         <v>34614</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>109</v>
@@ -4007,13 +4007,13 @@
         <v>78205</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4028,13 @@
         <v>18052</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -4043,13 +4043,13 @@
         <v>24890</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -4058,13 +4058,13 @@
         <v>42942</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4079,13 @@
         <v>3385</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -4094,13 +4094,13 @@
         <v>3797</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -4109,13 +4109,13 @@
         <v>7182</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4130,13 @@
         <v>2807</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -4145,13 +4145,13 @@
         <v>2150</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -4163,10 +4163,10 @@
         <v>83</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4234,13 @@
         <v>103572</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H34" s="7">
         <v>135</v>
@@ -4252,10 +4252,10 @@
         <v>217</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M34" s="7">
         <v>291</v>
@@ -4264,13 +4264,13 @@
         <v>194194</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4285,13 @@
         <v>145663</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>225</v>
+        <v>104</v>
       </c>
       <c r="H35" s="7">
         <v>195</v>
@@ -4300,13 +4300,13 @@
         <v>132730</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M35" s="7">
         <v>412</v>
@@ -4315,13 +4315,13 @@
         <v>278394</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4336,13 @@
         <v>79629</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H36" s="7">
         <v>119</v>
@@ -4351,13 +4351,13 @@
         <v>79611</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M36" s="7">
         <v>240</v>
@@ -4366,13 +4366,13 @@
         <v>159240</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4387,13 @@
         <v>8666</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -4402,13 +4402,13 @@
         <v>11979</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>31</v>
@@ -4417,13 +4417,13 @@
         <v>20645</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4438,13 @@
         <v>8057</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H38" s="7">
         <v>8</v>
@@ -4453,13 +4453,13 @@
         <v>5407</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M38" s="7">
         <v>20</v>
@@ -4468,10 +4468,10 @@
         <v>13464</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>255</v>
@@ -4551,7 +4551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3014F529-3F6A-47D5-99AA-717ED9415029}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D917A9-6092-4258-8FF2-A87698410E6B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4807,7 +4807,7 @@
         <v>1871</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>32</v>
@@ -5070,7 +5070,7 @@
         <v>300</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>301</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,13 +5085,13 @@
         <v>10072</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -5100,13 +5100,13 @@
         <v>9928</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M12" s="7">
         <v>29</v>
@@ -5115,13 +5115,13 @@
         <v>20000</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,10 +5139,10 @@
         <v>278</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5151,13 +5151,13 @@
         <v>697</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -5166,13 +5166,13 @@
         <v>4941</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>317</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5187,13 @@
         <v>2008</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5208,7 +5208,7 @@
         <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -5217,13 +5217,13 @@
         <v>2008</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,13 +5291,13 @@
         <v>36645</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -5306,13 +5306,13 @@
         <v>41232</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>328</v>
+        <v>62</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -5321,13 +5321,13 @@
         <v>77877</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5342,13 @@
         <v>39747</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -5357,13 +5357,13 @@
         <v>37803</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>145</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M17" s="7">
         <v>117</v>
@@ -5372,13 +5372,13 @@
         <v>77550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5393,13 @@
         <v>16325</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -5408,13 +5408,13 @@
         <v>16190</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -5423,13 +5423,13 @@
         <v>32514</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>348</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5444,13 @@
         <v>3228</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5459,13 +5459,13 @@
         <v>2623</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -5474,13 +5474,13 @@
         <v>5851</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>161</v>
+        <v>350</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5495,13 @@
         <v>1245</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5510,13 +5510,13 @@
         <v>1321</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -5525,13 +5525,13 @@
         <v>2566</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,7 +5587,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5599,13 +5599,13 @@
         <v>32738</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -5614,13 +5614,13 @@
         <v>26369</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -5629,13 +5629,13 @@
         <v>59106</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5650,13 @@
         <v>16584</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -5665,13 +5665,13 @@
         <v>23122</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>371</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M23" s="7">
         <v>63</v>
@@ -5680,13 +5680,13 @@
         <v>39706</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>185</v>
+        <v>373</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5701,13 @@
         <v>14293</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -5716,13 +5716,13 @@
         <v>13871</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -5731,13 +5731,13 @@
         <v>28163</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5752,13 @@
         <v>3164</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -5767,13 +5767,13 @@
         <v>2031</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>391</v>
+        <v>74</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -5782,13 +5782,13 @@
         <v>5195</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5803,13 @@
         <v>2745</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5818,13 +5818,13 @@
         <v>537</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -5833,13 +5833,13 @@
         <v>3282</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>403</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,7 +5895,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5907,13 +5907,13 @@
         <v>33322</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H28" s="7">
         <v>49</v>
@@ -5922,13 +5922,13 @@
         <v>37747</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M28" s="7">
         <v>96</v>
@@ -5937,13 +5937,13 @@
         <v>71070</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>331</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5958,13 @@
         <v>30347</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -5973,13 +5973,13 @@
         <v>26266</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>324</v>
+        <v>412</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M29" s="7">
         <v>76</v>
@@ -5988,13 +5988,13 @@
         <v>56613</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6009,13 @@
         <v>18992</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H30" s="7">
         <v>26</v>
@@ -6024,13 +6024,13 @@
         <v>20683</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -6039,13 +6039,13 @@
         <v>39675</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,13 +6060,13 @@
         <v>6406</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -6075,13 +6075,13 @@
         <v>4890</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -6093,10 +6093,10 @@
         <v>283</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6111,13 @@
         <v>3416</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -6126,13 +6126,13 @@
         <v>1741</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -6141,13 +6141,13 @@
         <v>5157</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,13 +6215,13 @@
         <v>134610</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H34" s="7">
         <v>188</v>
@@ -6230,13 +6230,13 @@
         <v>132870</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M34" s="7">
         <v>385</v>
@@ -6245,13 +6245,13 @@
         <v>267480</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,13 +6266,13 @@
         <v>110113</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H35" s="7">
         <v>164</v>
@@ -6281,13 +6281,13 @@
         <v>113799</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M35" s="7">
         <v>323</v>
@@ -6296,13 +6296,13 @@
         <v>223912</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,13 +6317,13 @@
         <v>60682</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H36" s="7">
         <v>86</v>
@@ -6332,13 +6332,13 @@
         <v>61541</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M36" s="7">
         <v>176</v>
@@ -6347,13 +6347,13 @@
         <v>122223</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>467</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>468</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,13 +6368,13 @@
         <v>17042</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H37" s="7">
         <v>14</v>
@@ -6383,13 +6383,13 @@
         <v>10241</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M37" s="7">
         <v>38</v>
@@ -6398,13 +6398,13 @@
         <v>27282</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>475</v>
+        <v>350</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6419,13 +6419,13 @@
         <v>9414</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>478</v>
+        <v>386</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>479</v>
+        <v>75</v>
       </c>
       <c r="H38" s="7">
         <v>5</v>
@@ -6434,13 +6434,13 @@
         <v>3599</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M38" s="7">
         <v>18</v>
@@ -6449,13 +6449,13 @@
         <v>13013</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,7 +6532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D375C4E4-B5B0-46D7-BC8F-DD8FDB68F5EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4711DF95-54CE-4564-B6FA-3ECA5CAE5909}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6549,7 +6549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6656,13 +6656,13 @@
         <v>5541</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -6671,13 +6671,13 @@
         <v>5022</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -6686,13 +6686,13 @@
         <v>10563</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>489</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,13 +6707,13 @@
         <v>3454</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>495</v>
+        <v>416</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>496</v>
+        <v>158</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6722,13 +6722,13 @@
         <v>4195</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -6737,13 +6737,13 @@
         <v>7649</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>502</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6758,13 +6758,13 @@
         <v>3464</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6773,13 +6773,13 @@
         <v>2491</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -6788,13 +6788,13 @@
         <v>5955</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>42</v>
+        <v>503</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6809,13 +6809,13 @@
         <v>1047</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6824,13 +6824,13 @@
         <v>2218</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -6839,13 +6839,13 @@
         <v>3265</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>417</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,13 +6860,13 @@
         <v>809</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6881,7 +6881,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6890,13 +6890,13 @@
         <v>809</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,13 +6964,13 @@
         <v>20815</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>418</v>
+        <v>518</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -6979,13 +6979,13 @@
         <v>16767</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>378</v>
+        <v>521</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M10" s="7">
         <v>51</v>
@@ -6994,13 +6994,13 @@
         <v>37581</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +7015,13 @@
         <v>17141</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>528</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -7030,13 +7030,13 @@
         <v>17460</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>528</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -7045,13 +7045,13 @@
         <v>34601</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,13 +7066,13 @@
         <v>16563</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -7081,13 +7081,13 @@
         <v>16486</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>237</v>
+        <v>537</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>538</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -7096,13 +7096,13 @@
         <v>33049</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,13 +7117,13 @@
         <v>4067</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>114</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -7132,13 +7132,13 @@
         <v>3912</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -7147,13 +7147,13 @@
         <v>7979</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,13 +7168,13 @@
         <v>727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -7183,13 +7183,13 @@
         <v>2291</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>250</v>
+        <v>552</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -7198,13 +7198,13 @@
         <v>3017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>553</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>119</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,13 +7272,13 @@
         <v>40803</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
@@ -7287,13 +7287,13 @@
         <v>23357</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>558</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>94</v>
@@ -7302,13 +7302,13 @@
         <v>64160</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7323,13 +7323,13 @@
         <v>36802</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -7338,13 +7338,13 @@
         <v>37551</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>569</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="M17" s="7">
         <v>111</v>
@@ -7353,13 +7353,13 @@
         <v>74353</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,13 +7374,13 @@
         <v>22004</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
@@ -7389,13 +7389,13 @@
         <v>36201</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>572</v>
+        <v>216</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -7404,13 +7404,13 @@
         <v>58205</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7425,13 +7425,13 @@
         <v>7349</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>583</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -7440,13 +7440,13 @@
         <v>5604</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -7455,13 +7455,13 @@
         <v>12954</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>584</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7476,13 +7476,13 @@
         <v>690</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -7491,13 +7491,13 @@
         <v>3352</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -7506,13 +7506,13 @@
         <v>4042</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7568,7 +7568,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7580,13 +7580,13 @@
         <v>29654</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>594</v>
+        <v>451</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="H22" s="7">
         <v>45</v>
@@ -7595,13 +7595,13 @@
         <v>28845</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="M22" s="7">
         <v>88</v>
@@ -7610,13 +7610,13 @@
         <v>58499</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>448</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7631,13 +7631,13 @@
         <v>17210</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -7646,13 +7646,13 @@
         <v>17925</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>606</v>
+        <v>216</v>
       </c>
       <c r="M23" s="7">
         <v>51</v>
@@ -7661,13 +7661,13 @@
         <v>35135</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>609</v>
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7682,13 +7682,13 @@
         <v>24627</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>611</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>612</v>
+        <v>536</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -7697,13 +7697,13 @@
         <v>15426</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>176</v>
+        <v>541</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>614</v>
+        <v>381</v>
       </c>
       <c r="M24" s="7">
         <v>57</v>
@@ -7712,13 +7712,13 @@
         <v>40053</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,13 +7733,13 @@
         <v>4651</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>620</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -7748,13 +7748,13 @@
         <v>5651</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -7763,13 +7763,13 @@
         <v>10302</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>250</v>
+        <v>622</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>345</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7784,13 @@
         <v>1214</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -7799,10 +7799,10 @@
         <v>3339</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>628</v>
@@ -7814,13 +7814,13 @@
         <v>4552</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,7 +7876,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7888,13 +7888,13 @@
         <v>31871</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="H28" s="7">
         <v>42</v>
@@ -7903,10 +7903,10 @@
         <v>31498</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>636</v>
@@ -7924,7 +7924,7 @@
         <v>638</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>639</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,13 +7939,13 @@
         <v>35629</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>642</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -7954,13 +7954,13 @@
         <v>35910</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="M29" s="7">
         <v>95</v>
@@ -7969,13 +7969,13 @@
         <v>71539</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,13 +7990,13 @@
         <v>28981</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>651</v>
       </c>
       <c r="H30" s="7">
         <v>30</v>
@@ -8005,13 +8005,13 @@
         <v>23427</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>653</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>654</v>
       </c>
       <c r="M30" s="7">
         <v>69</v>
@@ -8020,13 +8020,13 @@
         <v>52408</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8041,13 +8041,13 @@
         <v>5067</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>660</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -8056,13 +8056,13 @@
         <v>12055</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>663</v>
       </c>
       <c r="M31" s="7">
         <v>23</v>
@@ -8071,7 +8071,7 @@
         <v>17122</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>123</v>
+        <v>663</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>664</v>
@@ -8122,13 +8122,13 @@
         <v>5295</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>164</v>
+        <v>318</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>167</v>
+        <v>476</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8196,13 +8196,13 @@
         <v>128684</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H34" s="7">
         <v>152</v>
@@ -8211,13 +8211,13 @@
         <v>105489</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>65</v>
+        <v>675</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="M34" s="7">
         <v>330</v>
@@ -8226,13 +8226,13 @@
         <v>234173</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8247,13 +8247,13 @@
         <v>110235</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H35" s="7">
         <v>161</v>
@@ -8262,13 +8262,13 @@
         <v>113041</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>490</v>
+        <v>685</v>
       </c>
       <c r="M35" s="7">
         <v>314</v>
@@ -8277,13 +8277,13 @@
         <v>223277</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>685</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8298,13 +8298,13 @@
         <v>95639</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="H36" s="7">
         <v>135</v>
@@ -8313,13 +8313,13 @@
         <v>94031</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>689</v>
+        <v>303</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>690</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="M36" s="7">
         <v>264</v>
@@ -8331,10 +8331,10 @@
         <v>691</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>633</v>
+        <v>692</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>692</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,10 +8352,10 @@
         <v>283</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>400</v>
+        <v>693</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H37" s="7">
         <v>40</v>
@@ -8364,10 +8364,10 @@
         <v>29440</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>695</v>
+        <v>588</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>696</v>
@@ -8400,7 +8400,7 @@
         <v>4032</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>700</v>
@@ -8433,10 +8433,10 @@
         <v>705</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>706</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
